--- a/data/unchecked/manual_collect/Israel/IsraelCaseStatistics_20200224.xlsx
+++ b/data/unchecked/manual_collect/Israel/IsraelCaseStatistics_20200224.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\深度学习与区块链材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A909440A-748A-4F50-9A7C-B01C4B052B9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075D44E5-E83D-4184-A1C8-0E593D18C53C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,10 +151,6 @@
     <t>国家级</t>
   </si>
   <si>
-    <t>2020/2/23 00:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/2/24 00:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -198,6 +194,10 @@
   </si>
   <si>
     <t>2020/2/25 22:00:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/2/25 00:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -744,10 +744,10 @@
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -777,49 +777,49 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T2" s="6">
         <v>43885.856249999997</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W2" s="6">
         <v>43885.856249999997</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
